--- a/resources/Assignment 03.xlsx
+++ b/resources/Assignment 03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35993" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B19A39-686F-416C-8FA5-1BC976807B3A}"/>
+  <xr:revisionPtr revIDLastSave="63354" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D08902C-9432-402E-9671-6947ABAE1329}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$A$56:$A$66</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet2!$A$54:$A$77</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$A$65</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$A$65</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$A$65</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$2:$E$5</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$6:$E$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$F$2:$F$5</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -46,7 +46,7 @@
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
@@ -58,14 +58,14 @@
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$56:$B$66</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet2!$B$54:$B$77</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$B$65</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$B$65</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$B$65</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -253,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -497,11 +497,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -512,17 +527,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -530,9 +544,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,44 +829,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="19.33203125" style="1" customWidth="1"/>
-    <col min="9" max="20" width="19.44140625" style="1" customWidth="1"/>
-    <col min="21" max="24" width="19.21875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="19.28515625" style="1" customWidth="1"/>
+    <col min="9" max="20" width="19.42578125" style="1" customWidth="1"/>
+    <col min="21" max="24" width="19.28515625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -871,12 +885,12 @@
       <c r="F2" s="2">
         <v>15</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -895,12 +909,12 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -919,12 +933,12 @@
       <c r="F4" s="2">
         <v>50</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -935,200 +949,207 @@
         <v>35</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>20</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>45</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>1200</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>945</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>2200</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>2440</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>1260</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>790</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>665</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>1915</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>1995</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>950</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>1310</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>870</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>2170</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>2350</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>1235</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>1215</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>170</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>1520</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>1880</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>765</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>1135</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>770</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>1125</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>1200</v>
       </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1138,27 +1159,27 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>11</v>
       </c>
@@ -1206,7 +1227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
@@ -1222,11 +1243,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1254,7 +1275,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>-1</v>
       </c>
@@ -1328,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1402,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1476,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1550,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1624,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1698,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -1846,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -1920,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -1994,7 +2015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -2068,218 +2089,218 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <f t="shared" ref="B45:D45" si="0">C2</f>
         <v>0</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="16">
         <f>B3</f>
         <v>60</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="16">
         <f t="shared" ref="F45:H45" si="1">C3</f>
         <v>0</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="16">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="16">
         <f t="shared" ref="J45:L45" si="2">C4</f>
         <v>0</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="16">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="16">
         <f t="shared" ref="N45:P45" si="3">C5</f>
         <v>35</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="17">
+        <v>20</v>
+      </c>
+      <c r="P45" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="16">
         <f>F2</f>
         <v>15</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="16">
         <f>F3</f>
         <v>0</v>
       </c>
-      <c r="S45" s="17">
+      <c r="S45" s="16">
         <f>F4</f>
         <v>50</v>
       </c>
-      <c r="T45" s="17">
+      <c r="T45" s="16">
         <f>F5</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="16">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="16">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="16">
+        <f>D6</f>
         <v>20</v>
       </c>
-      <c r="U45" s="17">
-        <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="17">
-        <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="17">
-        <f>D6</f>
-        <v>40</v>
-      </c>
-      <c r="X45" s="17">
+      <c r="X45" s="16">
         <f>E6</f>
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="17"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+      <c r="B49" s="16"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="19">
         <f>30 * SUMPRODUCT(B11:E14, B2:E5) + 25 * SUMPRODUCT(F11:F14, F2:F5) + 25 * SUMPRODUCT(B15:E15, B6:E6)</f>
-        <v>6474250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6441250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="17"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="16"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>SUMPRODUCT(A32:X32, A$45:X$45)</f>
         <v>-15</v>
@@ -2297,7 +2318,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" ref="A57:A65" si="4">SUMPRODUCT(A33:X33, A$45:X$45)</f>
         <v>-60</v>
@@ -2307,7 +2328,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="4"/>
         <v>-50</v>
@@ -2317,7 +2338,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="4"/>
         <v>-55</v>
@@ -2327,7 +2348,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -2337,7 +2358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2347,7 +2368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -2357,7 +2378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -2367,17 +2388,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" si="4"/>
-        <v>-85</v>
+        <v>-65</v>
       </c>
       <c r="B64" s="1">
         <f>-B24</f>
         <v>-100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2386,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>SUMPRODUCT(A42:X42, A$45:X$45)</f>
         <v>0</v>
@@ -2395,12 +2416,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2412,18 +2434,18 @@
       <selection activeCell="C54" sqref="C54:C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2431,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2439,7 +2461,7 @@
         <v>7749.9999999999982</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2447,7 +2469,7 @@
         <v>625.00000000000034</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2455,7 +2477,7 @@
         <v>14025.000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,7 +2485,7 @@
         <v>31450</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2471,7 +2493,7 @@
         <v>19125.000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -2479,7 +2501,7 @@
         <v>59625</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,7 +2509,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -2495,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2503,7 +2525,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2511,34 +2533,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="19">
         <f>SUMPRODUCT(Sheet1!B56:B66,Sheet2!B2:B12)</f>
         <v>6441250</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2551,22 +2573,22 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>-1</v>
       </c>
@@ -2601,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>-1</v>
       </c>
@@ -2636,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>-1</v>
       </c>
@@ -2671,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>-1</v>
       </c>
@@ -2706,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2741,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2776,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -2811,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2846,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2881,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2916,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2951,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -2986,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -3021,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -3056,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -3091,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -3126,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>-1</v>
       </c>
@@ -3161,7 +3183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -3196,7 +3218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -3231,7 +3253,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -3266,7 +3288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -3301,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -3336,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -3371,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0</v>
       </c>
@@ -3406,81 +3428,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="26">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="19">
         <f>B3</f>
         <v>7749.9999999999982</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="19">
         <f>B4</f>
         <v>625.00000000000034</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="19">
         <f>B5</f>
         <v>14025.000000000004</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="19">
         <f>B6</f>
         <v>31450</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="19">
         <f>B7</f>
         <v>19125.000000000004</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="19">
         <f>B8</f>
         <v>59625</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="19">
         <f>B9</f>
         <v>61500</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="19">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="19">
         <f>B11</f>
         <v>31500</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="19">
         <f>B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3490,13 +3512,13 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="16"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3504,9 +3526,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f>SUMPRODUCT(A22:K22,A$48:K$48)</f>
+        <f t="shared" ref="A54:A77" si="0">SUMPRODUCT(A22:K22,A$48:K$48)</f>
         <v>31450</v>
       </c>
       <c r="B54" s="1">
@@ -3514,9 +3536,9 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f>SUMPRODUCT(A23:K23,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>19125.000000000004</v>
       </c>
       <c r="B55" s="1">
@@ -3524,9 +3546,9 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f>SUMPRODUCT(A24:K24,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>59625</v>
       </c>
       <c r="B56" s="1">
@@ -3534,9 +3556,9 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f>SUMPRODUCT(A25:K25,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>61500</v>
       </c>
       <c r="B57" s="1">
@@ -3544,9 +3566,9 @@
         <v>73200</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f>SUMPRODUCT(A26:K26,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>23700</v>
       </c>
       <c r="B58" s="1">
@@ -3554,9 +3576,9 @@
         <v>23700</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f>SUMPRODUCT(A27:K27,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>11375.000000000005</v>
       </c>
       <c r="B59" s="1">
@@ -3564,9 +3586,9 @@
         <v>19950</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f>SUMPRODUCT(A28:K28,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>51875</v>
       </c>
       <c r="B60" s="1">
@@ -3574,9 +3596,9 @@
         <v>57450</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f>SUMPRODUCT(A29:K29,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>53750</v>
       </c>
       <c r="B61" s="1">
@@ -3584,9 +3606,9 @@
         <v>59850</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f>SUMPRODUCT(A30:K30,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>30825</v>
       </c>
       <c r="B62" s="1">
@@ -3594,9 +3616,9 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f>SUMPRODUCT(A31:K31,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>18500.000000000004</v>
       </c>
       <c r="B63" s="1">
@@ -3604,9 +3626,9 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f>SUMPRODUCT(A32:K32,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>59000</v>
       </c>
       <c r="B64" s="1">
@@ -3614,9 +3636,9 @@
         <v>65100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <f>SUMPRODUCT(A33:K33,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>60875</v>
       </c>
       <c r="B65" s="1">
@@ -3624,9 +3646,9 @@
         <v>70500</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <f>SUMPRODUCT(A34:K34,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>17424.999999999996</v>
       </c>
       <c r="B66" s="1">
@@ -3634,9 +3656,9 @@
         <v>36450</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <f>SUMPRODUCT(A35:K35,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>5100</v>
       </c>
       <c r="B67" s="1">
@@ -3644,9 +3666,9 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f>SUMPRODUCT(A36:K36,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>45600</v>
       </c>
       <c r="B68" s="1">
@@ -3654,9 +3676,9 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <f>SUMPRODUCT(A37:K37,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>47475</v>
       </c>
       <c r="B69" s="1">
@@ -3664,9 +3686,9 @@
         <v>56400</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <f>SUMPRODUCT(A38:K38,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>31500</v>
       </c>
       <c r="B70" s="1">
@@ -3674,9 +3696,9 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <f>SUMPRODUCT(A39:K39,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>23750</v>
       </c>
       <c r="B71" s="1">
@@ -3684,9 +3706,9 @@
         <v>23750</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <f>SUMPRODUCT(A40:K40,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>30875</v>
       </c>
       <c r="B72" s="1">
@@ -3694,9 +3716,9 @@
         <v>30875</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f>SUMPRODUCT(A41:K41,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>17474.999999999996</v>
       </c>
       <c r="B73" s="1">
@@ -3704,9 +3726,9 @@
         <v>19125</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <f>SUMPRODUCT(A42:K42,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>-50</v>
       </c>
       <c r="B74" s="1">
@@ -3714,9 +3736,9 @@
         <v>28375</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <f>SUMPRODUCT(A43:K43,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>-12374.999999999996</v>
       </c>
       <c r="B75" s="1">
@@ -3724,9 +3746,9 @@
         <v>19250</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <f>SUMPRODUCT(A44:K44,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>28125</v>
       </c>
       <c r="B76" s="1">
@@ -3734,9 +3756,9 @@
         <v>28125</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <f>SUMPRODUCT(A45:K45,A$48:K$48)</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="B77" s="4">
@@ -3744,7 +3766,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>

--- a/resources/Assignment 03.xlsx
+++ b/resources/Assignment 03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63354" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D08902C-9432-402E-9671-6947ABAE1329}"/>
+  <xr:revisionPtr revIDLastSave="67054" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F4FC187-5E0B-4DA1-811A-919EDC99EDA9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -829,20 +829,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="19.28515625" style="1" customWidth="1"/>
-    <col min="9" max="20" width="19.42578125" style="1" customWidth="1"/>
-    <col min="21" max="24" width="19.28515625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="19.33203125" style="1" customWidth="1"/>
+    <col min="9" max="20" width="19.44140625" style="1" customWidth="1"/>
+    <col min="21" max="24" width="19.33203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -986,14 +986,14 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="13"/>
@@ -1003,7 +1003,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -1013,7 +1013,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2170</v>
       </c>
       <c r="E13" s="20">
-        <v>2350</v>
+        <v>2450</v>
       </c>
       <c r="F13" s="20">
         <v>1235</v>
@@ -1101,7 +1101,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="2"/>
@@ -1159,11 +1159,11 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>6</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
@@ -1243,11 +1243,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>-1</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2115,7 +2115,7 @@
       <c r="W43" s="19"/>
       <c r="X43" s="19"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <f>B2</f>
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2267,17 +2267,17 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="16"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>17</v>
       </c>
@@ -2286,21 +2286,21 @@
         <v>6441250</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="16"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f>SUMPRODUCT(A32:X32, A$45:X$45)</f>
         <v>-15</v>
@@ -2318,7 +2318,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" ref="A57:A65" si="4">SUMPRODUCT(A33:X33, A$45:X$45)</f>
         <v>-60</v>
@@ -2328,7 +2328,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="4"/>
         <v>-50</v>
@@ -2338,7 +2338,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="4"/>
         <v>-55</v>
@@ -2348,7 +2348,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -2358,7 +2358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2368,7 +2368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -2378,7 +2378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -2388,7 +2388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="4"/>
         <v>-65</v>
@@ -2398,7 +2398,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <f>SUMPRODUCT(A42:X42, A$45:X$45)</f>
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
     </row>
@@ -2434,18 +2434,18 @@
       <selection activeCell="C54" sqref="C54:C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>7749.9999999999982</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>625.00000000000034</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>14025.000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>31450</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>19125.000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>59625</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2533,21 +2533,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -2556,11 +2556,11 @@
         <v>6441250</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2573,7 +2573,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>-1</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>-1</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>-1</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>-1</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>-1</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>0</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -3441,7 +3441,7 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <f>B2</f>
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3512,13 +3512,13 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="16"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" ref="A54:A77" si="0">SUMPRODUCT(A22:K22,A$48:K$48)</f>
         <v>31450</v>
@@ -3536,7 +3536,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>19125.000000000004</v>
@@ -3546,7 +3546,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>59625</v>
@@ -3556,7 +3556,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>61500</v>
@@ -3566,7 +3566,7 @@
         <v>73200</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>23700</v>
@@ -3576,7 +3576,7 @@
         <v>23700</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>11375.000000000005</v>
@@ -3586,7 +3586,7 @@
         <v>19950</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>51875</v>
@@ -3596,7 +3596,7 @@
         <v>57450</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>53750</v>
@@ -3606,7 +3606,7 @@
         <v>59850</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>30825</v>
@@ -3616,7 +3616,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>18500.000000000004</v>
@@ -3626,7 +3626,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -3636,17 +3636,17 @@
         <v>65100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>60875</v>
       </c>
       <c r="B65" s="1">
         <f>30 * Sheet1!E13</f>
-        <v>70500</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>17424.999999999996</v>
@@ -3656,7 +3656,7 @@
         <v>36450</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>5100</v>
@@ -3666,7 +3666,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" si="0"/>
         <v>45600</v>
@@ -3676,7 +3676,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="0"/>
         <v>47475</v>
@@ -3686,7 +3686,7 @@
         <v>56400</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" si="0"/>
         <v>31500</v>
@@ -3696,7 +3696,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="0"/>
         <v>23750</v>
@@ -3706,7 +3706,7 @@
         <v>23750</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="0"/>
         <v>30875</v>
@@ -3716,7 +3716,7 @@
         <v>30875</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="0"/>
         <v>17474.999999999996</v>
@@ -3726,7 +3726,7 @@
         <v>19125</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" si="0"/>
         <v>-50</v>
@@ -3736,7 +3736,7 @@
         <v>28375</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" si="0"/>
         <v>-12374.999999999996</v>
@@ -3746,7 +3746,7 @@
         <v>19250</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" si="0"/>
         <v>28125</v>
@@ -3756,7 +3756,7 @@
         <v>28125</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <f t="shared" si="0"/>
         <v>30000</v>
@@ -3766,7 +3766,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
